--- a/贝叶斯危化品仓储风险分析/code/data/编码之后的数据.xlsx
+++ b/贝叶斯危化品仓储风险分析/code/data/编码之后的数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,90 +436,80 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>工作性质</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>是否关注</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>操作技能1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>制度执行1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>管理能力1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>维护保养1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>设施设备1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>库存管理1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>化学反应1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>自然天气1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>操作技能2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>制度执行2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>管理能力2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>维护保养2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>设施设备2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>库存管理2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>化学反应2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>自然天气2</t>
         </is>
@@ -527,37 +517,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -566,83 +556,71 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
         <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -684,21 +662,15 @@
         <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -740,45 +712,39 @@
         <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -796,12 +762,6 @@
         <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -819,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -846,83 +806,71 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
@@ -964,21 +912,15 @@
         <v>5</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -990,13 +932,13 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -1020,21 +962,15 @@
         <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -1076,136 +1012,118 @@
         <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -1217,48 +1135,42 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1300,21 +1212,15 @@
         <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -1323,22 +1229,22 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -1356,27 +1262,21 @@
         <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1412,30 +1312,24 @@
         <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>4</v>
@@ -1444,13 +1338,13 @@
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -1459,30 +1353,24 @@
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
         <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
@@ -1524,142 +1412,124 @@
         <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
         <v>4</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
@@ -1671,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
@@ -1680,30 +1550,24 @@
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
         <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1748,12 +1612,6 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1762,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -1804,21 +1662,15 @@
         <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
         <v>5</v>
@@ -1845,33 +1697,27 @@
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
         <v>5</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1916,33 +1762,27 @@
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -1960,33 +1800,27 @@
         <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
         <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
@@ -1995,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -2007,10 +1841,10 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
@@ -2019,30 +1853,24 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
         <v>3</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>4</v>
@@ -2057,16 +1885,16 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
@@ -2084,21 +1912,15 @@
         <v>4</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
@@ -2125,57 +1947,51 @@
         <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
         <v>4</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
@@ -2196,18 +2012,12 @@
         <v>4</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -2252,21 +2062,15 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
         <v>3</v>
@@ -2308,24 +2112,18 @@
         <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
@@ -2349,101 +2147,89 @@
         <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
         <v>3</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
         <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
         <v>4</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
         <v>5</v>
@@ -2455,10 +2241,10 @@
         <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
         <v>4</v>
@@ -2476,21 +2262,15 @@
         <v>4</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
         <v>5</v>
@@ -2534,11 +2314,1655 @@
       <c r="P37" t="n">
         <v>5</v>
       </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="n">
+        <v>4</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4</v>
+      </c>
+      <c r="O60" t="n">
+        <v>4</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5</v>
+      </c>
+      <c r="O61" t="n">
+        <v>4</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" t="n">
+        <v>4</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
